--- a/examples/sources/data/unsolved/to_schedule/2019-02-25.xlsx
+++ b/examples/sources/data/unsolved/to_schedule/2019-02-25.xlsx
@@ -2806,7 +2806,7 @@
         <v>1</v>
       </c>
       <c r="N41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O41" s="2">
         <v>43521</v>
@@ -2844,7 +2844,7 @@
         <v>0</v>
       </c>
       <c r="M42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -4235,7 +4235,7 @@
         <v>1</v>
       </c>
       <c r="N73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O73" s="2">
         <v>43521</v>
